--- a/public/DataUser/data-siswa-smk.xlsx
+++ b/public/DataUser/data-siswa-smk.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYEK PENELITIAN SPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE8EADD-A85A-45F7-B7C2-6B4FCE419BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD9E0C3-F158-47DC-B636-D4BDA049B92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{97B941E0-8019-407F-85C6-2C3F1673E065}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{97B941E0-8019-407F-85C6-2C3F1673E065}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="SISWA" sheetId="4" r:id="rId1"/>
+    <sheet name="User" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Sheet1 (2)'!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Sheet1 (3)'!$A$1:$H$285</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">SISWA!$A$1:$H$285</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">User!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="301">
   <si>
     <t>ABDUL DEVA PRATAMA</t>
   </si>
@@ -946,16 +946,33 @@
   </si>
   <si>
     <t>ZHAFIRRA SYAKILLA</t>
+  </si>
+  <si>
+    <t>Pijay</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>pijaybizher@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -978,14 +995,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -1347,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F500AF5C-2B64-43B5-94FA-AF1603248D20}">
   <dimension ref="A1:H285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8781,14 +8801,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D22B84C-EC58-4D4D-B981-F25E13BF3D31}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1">
+        <v>819947200</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{5D0CF835-399A-4618-ABF8-6D5172CF2FA5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
